--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +761,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +808,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +963,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +1010,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1056,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1165,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1212,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1367,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1414,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1598,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1645,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1916,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1963,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2147,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2194,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2349,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2396,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2527,10 +2551,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2574,28 +2598,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2620,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2782,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2805,28 +2829,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2875,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3018,10 +3042,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3065,28 +3089,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3111,28 +3135,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3220,10 +3244,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3267,28 +3291,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3313,28 +3337,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3451,10 +3475,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3498,28 +3522,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3544,28 +3568,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3677,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3724,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3770,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3879,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3926,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3972,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4197,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4220,28 +4244,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4290,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4399,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4422,28 +4446,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4492,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4577,10 +4601,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4624,28 +4648,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4670,28 +4694,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4779,10 +4803,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4826,28 +4850,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4872,28 +4896,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5034,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5081,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5127,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5328,10 +5352,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5375,28 +5399,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5421,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5554,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5577,28 +5601,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5732,10 +5756,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5779,28 +5803,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5825,28 +5849,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5958,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +6005,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6051,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6189,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6236,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6282,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6391,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6438,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6484,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6593,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6640,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6686,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6771,10 +6795,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6818,28 +6842,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6864,28 +6888,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7060,10 +7084,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7107,28 +7131,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7153,28 +7177,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7262,10 +7286,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7309,28 +7333,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7355,28 +7379,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7464,10 +7488,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7511,28 +7535,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7557,28 +7581,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7724,10 +7748,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7771,28 +7795,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7817,28 +7841,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7926,10 +7950,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7973,28 +7997,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8019,28 +8043,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8123,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
